--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097489.027848091</v>
+        <v>3094917.073330184</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.6383038</v>
+        <v>10087461.63830379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>120.8355840452563</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>26.71728140711206</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>163.9206648785249</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>316.5747219976522</v>
       </c>
       <c r="W8" t="n">
-        <v>341.762586537471</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.05884990877803</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.52129633183125</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999724</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068612551</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132710635</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.8658378359718</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.064256048457</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2266.302470686548</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.239583342978</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1582.470928072863</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.005169811784</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>818.8658378359718</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W4" t="n">
-        <v>671.7249121235795</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X4" t="n">
-        <v>443.7353612255621</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.7744035713887</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2531.572661847995</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2277.810876486087</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1946.747989142516</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.979333872402</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.513575611322</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>830.3742436355105</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,61 +5021,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>417.9651836029473</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>913.2907898187045</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187045</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.88875337331</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612595</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658408016</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658408016</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565588</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1231.938859683109</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277295</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277295</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551898</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611487</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004737</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406492</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168848</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797234</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638196413</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311209</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611076162</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333242</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301481</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355966</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068036</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694732</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885228</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398617</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492602</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474807</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466597</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123026</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852912</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591832</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.37586661602</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778471</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967201</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354688</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300134</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568984</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028062</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797234</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797234</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>251.5626541092344</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>746.8882603249916</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951542</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951542</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685894</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6099,16 +6099,16 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V24" t="n">
         <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.226249268402</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.614450297915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400658</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803624</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803624</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979693</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000589</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000589</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000589</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797234</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138356</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703055</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.986780390105316e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.728039933368564e-11</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101824</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273368057</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715215</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760917</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>697885.5043846412</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.609736506</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.082544085239839e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.511585878688493e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192594</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670457</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670696</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670681</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670434</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670449</v>
       </c>
       <c r="K4" t="n">
+        <v>5067.592601670439</v>
+      </c>
+      <c r="L4" t="n">
         <v>5067.592601670445</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>5067.592601670445</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5067.592601670456</v>
+      </c>
+      <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="M4" t="n">
-        <v>5067.592601670419</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5067.592601670429</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670424</v>
-      </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239074</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210445</v>
+        <v>-176005.9588210447</v>
       </c>
       <c r="C6" t="n">
+        <v>413961.9203935001</v>
+      </c>
+      <c r="D6" t="n">
         <v>413961.9203935002</v>
       </c>
-      <c r="D6" t="n">
-        <v>413961.9203935</v>
-      </c>
       <c r="E6" t="n">
-        <v>-364488.2904467809</v>
+        <v>-364523.0283722164</v>
       </c>
       <c r="F6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854929</v>
       </c>
       <c r="G6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854943</v>
       </c>
       <c r="H6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854919</v>
       </c>
       <c r="I6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854904</v>
       </c>
       <c r="J6" t="n">
-        <v>403461.2681183353</v>
+        <v>403426.5301928985</v>
       </c>
       <c r="K6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="L6" t="n">
-        <v>579884.4873109279</v>
+        <v>579849.7493854923</v>
       </c>
       <c r="M6" t="n">
-        <v>455675.9766028695</v>
+        <v>455641.2386774338</v>
       </c>
       <c r="N6" t="n">
-        <v>579884.4873109279</v>
+        <v>579849.7493854922</v>
       </c>
       <c r="O6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="P6" t="n">
-        <v>579884.4873109282</v>
+        <v>579849.7493854924</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26750,13 +26750,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26799,16 +26799,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099654</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.58709609575447e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,16 +26981,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-12</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545498</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>95.61273631240145</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332949</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>259.8057169294789</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.52765547913293</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>11.1775364724827</v>
       </c>
       <c r="W8" t="n">
-        <v>7.478382179942002</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>160.6508054802591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>312.3207226335049</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P18" t="n">
-        <v>307.465452939363</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093166</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107903099</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591459</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4910455250327</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683968</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790877</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937516</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134957642</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
